--- a/evaluation/Summary.xlsx
+++ b/evaluation/Summary.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA0A9881-51C8-4116-B560-0F1E51BFD8E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8992E8-7F12-4A5E-81E4-8B100371660C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="1950" windowWidth="23415" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="135" windowWidth="28230" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="51">
   <si>
     <t>ang</t>
   </si>
@@ -125,9 +124,6 @@
     <t>S01F</t>
   </si>
   <si>
-    <t>error_c</t>
-  </si>
-  <si>
     <t>error_f0</t>
   </si>
   <si>
@@ -136,12 +132,60 @@
   <si>
     <t>F0 conversion</t>
   </si>
+  <si>
+    <t>% change</t>
+  </si>
+  <si>
+    <t>S03F</t>
+  </si>
+  <si>
+    <t>S04F</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>starGAN</t>
+  </si>
+  <si>
+    <t>error_s</t>
+  </si>
+  <si>
+    <t>error_our</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>2ang</t>
+  </si>
+  <si>
+    <t>2hap</t>
+  </si>
+  <si>
+    <t>2neu</t>
+  </si>
+  <si>
+    <t>2sad</t>
+  </si>
+  <si>
+    <t>Emotion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +217,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -205,6 +256,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -259,7 +311,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -273,66 +325,66 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$T$16:$T$23</c:f>
+                <c:f>Sheet1!$U$16:$U$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="8"/>
                   <c:pt idx="0">
-                    <c:v>6</c:v>
+                    <c:v>3.0838713359876091</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6</c:v>
+                    <c:v>5.2911838256430208</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5</c:v>
+                    <c:v>11.030573411399871</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5</c:v>
+                    <c:v>4.5220898611689329</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3</c:v>
+                    <c:v>6.3426336113124435</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2</c:v>
+                    <c:v>5.1043512175887971</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>5</c:v>
+                    <c:v>6.6434473981894371</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3</c:v>
+                    <c:v>5.8925940524365661</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$T$16:$T$23</c:f>
+                <c:f>Sheet1!$U$16:$U$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="8"/>
                   <c:pt idx="0">
-                    <c:v>6</c:v>
+                    <c:v>3.0838713359876091</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6</c:v>
+                    <c:v>5.2911838256430208</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5</c:v>
+                    <c:v>11.030573411399871</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5</c:v>
+                    <c:v>4.5220898611689329</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3</c:v>
+                    <c:v>6.3426336113124435</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2</c:v>
+                    <c:v>5.1043512175887971</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>5</c:v>
+                    <c:v>6.6434473981894371</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3</c:v>
+                    <c:v>5.8925940524365661</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -390,28 +442,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>63.15</c:v>
+                  <c:v>57.73391812865497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.42</c:v>
+                  <c:v>55.508040935672511</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.12</c:v>
+                  <c:v>58.879193722943725</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.25</c:v>
+                  <c:v>50.28950216450216</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.880000000000003</c:v>
+                  <c:v>41.372029133657037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.25</c:v>
+                  <c:v>37.878971803390407</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.14</c:v>
+                  <c:v>44.672718585762063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.71</c:v>
+                  <c:v>37.514333492594361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -438,7 +490,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -452,66 +504,66 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$U$16:$U$23</c:f>
+                <c:f>Sheet1!$V$16:$V$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="8"/>
                   <c:pt idx="0">
-                    <c:v>2</c:v>
+                    <c:v>3.1167793964214656</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7</c:v>
+                    <c:v>10.777313310823393</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2</c:v>
+                    <c:v>7.6347744527553392</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4</c:v>
+                    <c:v>6.0825390674169881</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1</c:v>
+                    <c:v>5.7095949414106402</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1</c:v>
+                    <c:v>5.6701641811458963</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>5</c:v>
+                    <c:v>5.9064481535960756</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4</c:v>
+                    <c:v>6.3865606697643571</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$U$16:$U$23</c:f>
+                <c:f>Sheet1!$V$16:$V$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="8"/>
                   <c:pt idx="0">
-                    <c:v>2</c:v>
+                    <c:v>3.1167793964214656</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7</c:v>
+                    <c:v>10.777313310823393</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2</c:v>
+                    <c:v>7.6347744527553392</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4</c:v>
+                    <c:v>6.0825390674169881</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1</c:v>
+                    <c:v>5.7095949414106402</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1</c:v>
+                    <c:v>5.6701641811458963</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>5</c:v>
+                    <c:v>5.9064481535960756</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4</c:v>
+                    <c:v>6.3865606697643571</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -569,28 +621,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>21.05</c:v>
+                  <c:v>25.540935672514621</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.680000000000007</c:v>
+                  <c:v>41.476608187134502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.87</c:v>
+                  <c:v>37.280167748917748</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.87</c:v>
+                  <c:v>31.392721861471863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>23.502321322088765</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.95</c:v>
+                  <c:v>23.653207257858419</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>38.075728619206878</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.85</c:v>
+                  <c:v>23.908265647396082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,6 +650,185 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A9ED-4783-9A8C-2C9AC4876FB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>starGAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$W$16:$W$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>2.3635427342644704</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.3623929945833875</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.3739699125285592</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.1491165586357903</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.4313864187881609</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.1206392162308161</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.6941677804105348</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.1868808290792443</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$W$16:$W$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>2.3635427342644704</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.3623929945833875</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.3739699125285592</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.1491165586357903</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.4313864187881609</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.1206392162308161</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.6941677804105348</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.1868808290792443</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$Q$16:$Q$23</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ang2neu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ang2sad</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>hap2neu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hap2sad</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>neu2ang</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>neu2hap</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sad2ang</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sad2hap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$16:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>53.157894736842103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.897660818713447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.112283549783555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.140827922077918</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.81088678763097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.189837294488456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.540850453893938</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.984233158146203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6684-4036-A1C1-E8C3387F1F15}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -643,7 +874,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -669,7 +900,7 @@
         <c:axId val="526818776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -694,7 +925,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:ln>
                       <a:noFill/>
                     </a:ln>
@@ -710,7 +941,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
                     <a:ln>
                       <a:noFill/>
                     </a:ln>
@@ -721,33 +952,8 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Percentage Change</a:t>
+                  <a:t>Percentage Change (%)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0">
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> (%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -764,7 +970,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:ln>
                     <a:noFill/>
                   </a:ln>
@@ -829,6 +1035,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21379702537182851"/>
+          <c:y val="7.8703703703703706E-2"/>
+          <c:w val="0.60095013123359575"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -842,7 +1058,1323 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$79:$I$82</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2ang</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2hap</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2neu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2sad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$79:$J$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1100000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-927E-4A5A-A0AF-51C3ECF783FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>our model</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$79:$I$82</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2ang</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2hap</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2neu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2sad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$79:$K$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-927E-4A5A-A0AF-51C3ECF783FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F0 conversion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$79:$I$82</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2ang</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2hap</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2neu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2sad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$79:$L$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.9299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-927E-4A5A-A0AF-51C3ECF783FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>starGAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$79:$I$82</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2ang</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2hap</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2neu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2sad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$79:$M$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-927E-4A5A-A0AF-51C3ECF783FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="651066320"/>
+        <c:axId val="651056152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="651066320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="651056152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="651056152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0"/>
+                  <a:t>Voice Quality</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="651066320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.8157519581299841E-2"/>
+          <c:y val="4.6296296296296294E-2"/>
+          <c:w val="0.87443121770059518"/>
+          <c:h val="0.12905147273257508"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$91:$C$94</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2ang</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2hap</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2neu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2sad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$91:$D$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D0A-4819-8B17-B652B5AEEC1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>our model</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$91:$C$94</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2ang</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2hap</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2neu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2sad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$91:$E$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D0A-4819-8B17-B652B5AEEC1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F0 conversion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$91:$C$94</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2ang</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2hap</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2neu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2sad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$91:$F$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8D0A-4819-8B17-B652B5AEEC1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>starGAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$91:$C$94</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2ang</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2hap</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2neu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2sad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$91:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8D0A-4819-8B17-B652B5AEEC1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="729158824"/>
+        <c:axId val="729160792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="729158824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729160792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="729160792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0"/>
+                  <a:t>Speaker Similarity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729158824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6420921399339984E-2"/>
+          <c:y val="6.4814814814814811E-2"/>
+          <c:w val="0.91309184252431697"/>
+          <c:h val="0.10590332458442693"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -896,6 +2428,83 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1438,20 +3047,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>423862</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>604836</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1471,6 +4086,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>434837</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>11597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>103532</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>87797</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A0EDF2-C800-46C8-BBC9-6794DED04AC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>110531</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>12168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>390140</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>88368</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628EC507-4811-4D43-8101-9838DA4558F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1742,10 +4429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:U37"/>
+  <dimension ref="C2:W95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,7 +4440,7 @@
     <col min="19" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1778,7 +4465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>4</v>
       </c>
@@ -1816,7 +4503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +4550,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -1910,7 +4597,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -1957,7 +4644,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -2004,7 +4691,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -2061,7 +4748,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -2071,8 +4758,11 @@
       <c r="H14" t="s">
         <v>28</v>
       </c>
+      <c r="L14" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>27</v>
       </c>
@@ -2083,7 +4773,7 @@
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
@@ -2092,25 +4782,43 @@
         <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K15" t="s">
         <v>22</v>
       </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="R15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" t="s">
         <v>34</v>
       </c>
-      <c r="S15" t="s">
-        <v>35</v>
-      </c>
       <c r="T15" t="s">
+        <v>42</v>
+      </c>
+      <c r="U15" t="s">
+        <v>44</v>
+      </c>
+      <c r="V15" t="s">
         <v>32</v>
       </c>
-      <c r="U15" t="s">
-        <v>33</v>
+      <c r="W15" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -2141,23 +4849,45 @@
         <f>G16-J16</f>
         <v>42.10526315789474</v>
       </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <f>M16/D16*100</f>
+        <v>52.631578947368418</v>
+      </c>
       <c r="Q16" t="s">
         <v>21</v>
       </c>
       <c r="R16">
-        <v>63.15</v>
+        <f>(G16+G30+G44+G58)/4</f>
+        <v>57.73391812865497</v>
       </c>
       <c r="S16">
-        <v>21.05</v>
+        <f>(J16+J30+J44+J58)/4</f>
+        <v>25.540935672514621</v>
       </c>
       <c r="T16">
-        <v>6</v>
+        <f>(N16+N30+N44+N58)/4</f>
+        <v>53.157894736842103</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <f>STDEV(G16,G30,G44,G58)/2</f>
+        <v>3.0838713359876091</v>
+      </c>
+      <c r="V16">
+        <f>STDEV(J16,J30,J44,J58)/2</f>
+        <v>3.1167793964214656</v>
+      </c>
+      <c r="W16">
+        <f>STDEV(N16,N30,N44,N58)/2</f>
+        <v>2.3635427342644704</v>
       </c>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -2188,23 +4918,45 @@
         <f t="shared" ref="K17:K23" si="4">G17-J17</f>
         <v>-5.2631578947368354</v>
       </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>9</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17:N23" si="5">M17/D17*100</f>
+        <v>47.368421052631575</v>
+      </c>
       <c r="Q17" t="s">
         <v>20</v>
       </c>
       <c r="R17">
-        <v>68.42</v>
+        <f>(G17+G31+G45+G59)/4</f>
+        <v>55.508040935672511</v>
       </c>
       <c r="S17">
-        <v>73.680000000000007</v>
+        <f>(J17+J31+J45+J59)/4</f>
+        <v>41.476608187134502</v>
       </c>
       <c r="T17">
-        <v>6</v>
+        <f>(N17+N31+N45+N59)/4</f>
+        <v>54.897660818713447</v>
       </c>
       <c r="U17">
-        <v>7</v>
+        <f t="shared" ref="U17:U23" si="6">STDEV(G17,G31,G45,G59)/2</f>
+        <v>5.2911838256430208</v>
+      </c>
+      <c r="V17">
+        <f t="shared" ref="V17:V23" si="7">STDEV(J17,J31,J45,J59)/2</f>
+        <v>10.777313310823393</v>
+      </c>
+      <c r="W17">
+        <f t="shared" ref="W17:W23" si="8">STDEV(N17,N31,N45,N59)/2</f>
+        <v>3.3623929945833875</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -2235,23 +4987,45 @@
         <f t="shared" si="4"/>
         <v>31.25</v>
       </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
+      <c r="M18">
+        <v>12</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>37.5</v>
+      </c>
       <c r="Q18" t="s">
         <v>19</v>
       </c>
       <c r="R18">
-        <v>53.12</v>
+        <f t="shared" ref="R18:R23" si="9">(G18+G32+G46+G60)/4</f>
+        <v>58.879193722943725</v>
       </c>
       <c r="S18">
-        <v>21.87</v>
+        <f>(J18+J32+J46+J60)/4</f>
+        <v>37.280167748917748</v>
       </c>
       <c r="T18">
-        <v>5</v>
+        <f>(N18+N32+N46+N60)/4</f>
+        <v>55.112283549783555</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>11.030573411399871</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="7"/>
+        <v>7.6347744527553392</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="8"/>
+        <v>7.3739699125285592</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -2282,23 +5056,45 @@
         <f t="shared" si="4"/>
         <v>9.375</v>
       </c>
+      <c r="L19">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>11</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>34.375</v>
+      </c>
       <c r="Q19" t="s">
         <v>18</v>
       </c>
       <c r="R19">
-        <v>56.25</v>
+        <f t="shared" si="9"/>
+        <v>50.28950216450216</v>
       </c>
       <c r="S19">
-        <v>46.87</v>
+        <f>(J19+J33+J47+J61)/4</f>
+        <v>31.392721861471863</v>
       </c>
       <c r="T19">
-        <v>5</v>
+        <f>(N19+N33+N47+N61)/4</f>
+        <v>52.140827922077918</v>
       </c>
       <c r="U19">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>4.5220898611689329</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="7"/>
+        <v>6.0825390674169881</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="8"/>
+        <v>6.1491165586357903</v>
       </c>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>17</v>
       </c>
@@ -2329,23 +5125,45 @@
         <f t="shared" si="4"/>
         <v>25.581395348837205</v>
       </c>
+      <c r="L20">
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>13</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>30.232558139534881</v>
+      </c>
       <c r="Q20" t="s">
         <v>17</v>
       </c>
       <c r="R20">
-        <v>34.880000000000003</v>
+        <f t="shared" si="9"/>
+        <v>41.372029133657037</v>
       </c>
       <c r="S20">
-        <v>9.3000000000000007</v>
+        <f>(J20+J34+J48+J62)/4</f>
+        <v>23.502321322088765</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <f>(N20+N34+N48+N62)/4</f>
+        <v>39.81088678763097</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>6.3426336113124435</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="7"/>
+        <v>5.7095949414106402</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="8"/>
+        <v>3.4313864187881609</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -2376,23 +5194,45 @@
         <f t="shared" si="4"/>
         <v>9.3023255813953476</v>
       </c>
+      <c r="L21">
+        <v>35</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>13.953488372093023</v>
+      </c>
       <c r="Q21" t="s">
         <v>16</v>
       </c>
       <c r="R21">
-        <v>23.25</v>
+        <f t="shared" si="9"/>
+        <v>37.878971803390407</v>
       </c>
       <c r="S21">
-        <v>13.95</v>
+        <f>(J21+J35+J49+J63)/4</f>
+        <v>23.653207257858419</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <f>(N21+N35+N49+N63)/4</f>
+        <v>31.189837294488456</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>5.1043512175887971</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="7"/>
+        <v>5.6701641811458963</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="8"/>
+        <v>6.1206392162308161</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -2423,23 +5263,45 @@
         <f t="shared" si="4"/>
         <v>7.1428571428571388</v>
       </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="N22">
+        <f>M22/D22*100</f>
+        <v>42.857142857142854</v>
+      </c>
       <c r="Q22" t="s">
         <v>15</v>
       </c>
       <c r="R22">
-        <v>57.14</v>
+        <f t="shared" si="9"/>
+        <v>44.672718585762063</v>
       </c>
       <c r="S22">
-        <v>50</v>
+        <f>(J22+J36+J50+J64)/4</f>
+        <v>38.075728619206878</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <f>(N22+N36+N50+N64)/4</f>
+        <v>41.540850453893938</v>
       </c>
       <c r="U22">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>6.6434473981894371</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="7"/>
+        <v>5.9064481535960756</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="8"/>
+        <v>1.6941677804105348</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>14</v>
       </c>
@@ -2470,23 +5332,59 @@
         <f t="shared" si="4"/>
         <v>-7.1428571428571388</v>
       </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>28.571428571428569</v>
+      </c>
       <c r="Q23" t="s">
         <v>14</v>
       </c>
       <c r="R23">
-        <v>35.71</v>
+        <f t="shared" si="9"/>
+        <v>37.514333492594361</v>
       </c>
       <c r="S23">
-        <v>42.85</v>
+        <f>(J23+J37+J51+J65)/4</f>
+        <v>23.908265647396082</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <f>(N23+N37+N51+N65)/4</f>
+        <v>25.984233158146203</v>
       </c>
       <c r="U23">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>5.8925940524365661</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="7"/>
+        <v>6.3865606697643571</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="8"/>
+        <v>2.1868808290792443</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <f>AVERAGE(R16:R23)</f>
+        <v>47.981088495897161</v>
+      </c>
+      <c r="S24">
+        <f>AVERAGE(S16:S23)</f>
+        <v>30.603744539573608</v>
+      </c>
+      <c r="T24">
+        <f>AVERAGE(T16:T23)</f>
+        <v>44.229309340197076</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -2496,8 +5394,11 @@
       <c r="H28" t="s">
         <v>28</v>
       </c>
+      <c r="L28" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>27</v>
       </c>
@@ -2508,7 +5409,7 @@
         <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H29" t="s">
         <v>25</v>
@@ -2517,13 +5418,22 @@
         <v>24</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K29" t="s">
         <v>22</v>
       </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>21</v>
       </c>
@@ -2534,11 +5444,11 @@
         <v>17</v>
       </c>
       <c r="F30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:G37" si="5">F30/D30*100</f>
-        <v>60</v>
+        <f t="shared" ref="G30:G37" si="10">F30/D30*100</f>
+        <v>62.222222222222221</v>
       </c>
       <c r="H30">
         <v>30</v>
@@ -2547,15 +5457,25 @@
         <v>15</v>
       </c>
       <c r="J30">
-        <f t="shared" ref="J30:J37" si="6">I30/D30*100</f>
+        <f t="shared" ref="J30:J37" si="11">I30/D30*100</f>
         <v>33.333333333333329</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:K37" si="7">G30-J30</f>
-        <v>26.666666666666671</v>
+        <f t="shared" ref="K30:K37" si="12">G30-J30</f>
+        <v>28.888888888888893</v>
+      </c>
+      <c r="L30">
+        <v>18</v>
+      </c>
+      <c r="M30">
+        <v>27</v>
+      </c>
+      <c r="N30">
+        <f>M30/D30*100</f>
+        <v>60</v>
       </c>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -2569,7 +5489,7 @@
         <v>25</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>55.555555555555557</v>
       </c>
       <c r="H31">
@@ -2579,15 +5499,25 @@
         <v>13</v>
       </c>
       <c r="J31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>28.888888888888886</v>
       </c>
       <c r="K31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>26.666666666666671</v>
       </c>
+      <c r="L31">
+        <v>22</v>
+      </c>
+      <c r="M31">
+        <v>23</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:N37" si="13">M31/D31*100</f>
+        <v>51.111111111111107</v>
+      </c>
     </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>19</v>
       </c>
@@ -2601,7 +5531,7 @@
         <v>20</v>
       </c>
       <c r="G32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.606060606060609</v>
       </c>
       <c r="H32">
@@ -2611,15 +5541,25 @@
         <v>14</v>
       </c>
       <c r="J32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>42.424242424242422</v>
       </c>
       <c r="K32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>18.181818181818187</v>
       </c>
+      <c r="L32">
+        <v>17</v>
+      </c>
+      <c r="M32">
+        <v>16</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="13"/>
+        <v>48.484848484848484</v>
+      </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>18</v>
       </c>
@@ -2633,7 +5573,7 @@
         <v>17</v>
       </c>
       <c r="G33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>51.515151515151516</v>
       </c>
       <c r="H33">
@@ -2643,15 +5583,25 @@
         <v>10</v>
       </c>
       <c r="J33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30.303030303030305</v>
       </c>
       <c r="K33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>21.212121212121211</v>
       </c>
+      <c r="L33">
+        <v>15</v>
+      </c>
+      <c r="M33">
+        <v>18</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="13"/>
+        <v>54.54545454545454</v>
+      </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>17</v>
       </c>
@@ -2665,7 +5615,7 @@
         <v>9</v>
       </c>
       <c r="G34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>32.142857142857146</v>
       </c>
       <c r="H34">
@@ -2675,15 +5625,25 @@
         <v>9</v>
       </c>
       <c r="J34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>32.142857142857146</v>
       </c>
       <c r="K34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
+      <c r="L34">
+        <v>16</v>
+      </c>
+      <c r="M34">
+        <v>12</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="13"/>
+        <v>42.857142857142854</v>
+      </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -2697,7 +5657,7 @@
         <v>11</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>39.285714285714285</v>
       </c>
       <c r="H35">
@@ -2707,15 +5667,25 @@
         <v>6</v>
       </c>
       <c r="J35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>21.428571428571427</v>
       </c>
       <c r="K35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>17.857142857142858</v>
       </c>
+      <c r="L35">
+        <v>16</v>
+      </c>
+      <c r="M35">
+        <v>12</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="13"/>
+        <v>42.857142857142854</v>
+      </c>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -2729,7 +5699,7 @@
         <v>9</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>39.130434782608695</v>
       </c>
       <c r="H36">
@@ -2739,15 +5709,25 @@
         <v>7</v>
       </c>
       <c r="J36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30.434782608695656</v>
       </c>
       <c r="K36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8.6956521739130395</v>
       </c>
+      <c r="L36">
+        <v>14</v>
+      </c>
+      <c r="M36">
+        <v>9</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="13"/>
+        <v>39.130434782608695</v>
+      </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -2761,7 +5741,7 @@
         <v>8</v>
       </c>
       <c r="G37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>34.782608695652172</v>
       </c>
       <c r="H37">
@@ -2771,12 +5751,1147 @@
         <v>4</v>
       </c>
       <c r="J37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>17.391304347826086</v>
       </c>
       <c r="K37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>17.391304347826086</v>
+      </c>
+      <c r="L37">
+        <v>18</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="13"/>
+        <v>21.739130434782609</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>18</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <f>F44/D44*100</f>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="H44">
+        <v>13</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <f>I44/D44*100</f>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="K44">
+        <f>G44-J44</f>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="L44">
+        <v>9</v>
+      </c>
+      <c r="M44">
+        <v>9</v>
+      </c>
+      <c r="N44">
+        <f>M44/D44*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>18</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <f>F45/D45*100</f>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="H45">
+        <v>12</v>
+      </c>
+      <c r="I45">
+        <v>6</v>
+      </c>
+      <c r="J45">
+        <f>I45/D45*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ref="K45:K51" si="14">G45-J45</f>
+        <v>22.222222222222229</v>
+      </c>
+      <c r="L45">
+        <v>7</v>
+      </c>
+      <c r="M45">
+        <v>11</v>
+      </c>
+      <c r="N45">
+        <f t="shared" ref="N45:N51" si="15">M45/D45*100</f>
+        <v>61.111111111111114</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>16</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>14</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46:G51" si="16">F46/D46*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="H46">
+        <v>7</v>
+      </c>
+      <c r="I46">
+        <v>9</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ref="J46:J51" si="17">I46/D46*100</f>
+        <v>56.25</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="14"/>
+        <v>31.25</v>
+      </c>
+      <c r="L46">
+        <v>5</v>
+      </c>
+      <c r="M46">
+        <v>11</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="15"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>16</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="16"/>
+        <v>56.25</v>
+      </c>
+      <c r="H47">
+        <v>11</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="17"/>
+        <v>31.25</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>10</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="15"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <v>26</v>
+      </c>
+      <c r="E48">
+        <v>16</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="16"/>
+        <v>38.461538461538467</v>
+      </c>
+      <c r="H48">
+        <v>21</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="17"/>
+        <v>19.230769230769234</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="14"/>
+        <v>19.230769230769234</v>
+      </c>
+      <c r="L48">
+        <v>14</v>
+      </c>
+      <c r="M48">
+        <v>12</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="15"/>
+        <v>46.153846153846153</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <v>26</v>
+      </c>
+      <c r="E49">
+        <v>15</v>
+      </c>
+      <c r="F49">
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="16"/>
+        <v>42.307692307692307</v>
+      </c>
+      <c r="H49">
+        <v>21</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="17"/>
+        <v>19.230769230769234</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="14"/>
+        <v>23.076923076923073</v>
+      </c>
+      <c r="L49">
+        <v>17</v>
+      </c>
+      <c r="M49">
+        <v>9</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="15"/>
+        <v>34.615384615384613</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>35</v>
+      </c>
+      <c r="E50">
+        <v>25</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="16"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="H50">
+        <v>26</v>
+      </c>
+      <c r="I50">
+        <v>9</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="17"/>
+        <v>25.714285714285712</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="14"/>
+        <v>2.8571428571428577</v>
+      </c>
+      <c r="L50">
+        <v>19</v>
+      </c>
+      <c r="M50">
+        <v>16</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="15"/>
+        <v>45.714285714285715</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51">
+        <v>35</v>
+      </c>
+      <c r="E51">
+        <v>26</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="16"/>
+        <v>25.714285714285712</v>
+      </c>
+      <c r="H51">
+        <v>28</v>
+      </c>
+      <c r="I51">
+        <v>7</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="14"/>
+        <v>5.7142857142857117</v>
+      </c>
+      <c r="L51">
+        <v>27</v>
+      </c>
+      <c r="M51">
+        <v>8</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="15"/>
+        <v>22.857142857142858</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" t="s">
+        <v>25</v>
+      </c>
+      <c r="M57" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58">
+        <v>40</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
+      </c>
+      <c r="F58">
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <f>F58/D58*100</f>
+        <v>50</v>
+      </c>
+      <c r="H58">
+        <v>32</v>
+      </c>
+      <c r="I58">
+        <v>8</v>
+      </c>
+      <c r="J58">
+        <f>I58/D58*100</f>
+        <v>20</v>
+      </c>
+      <c r="K58">
+        <f>G58-J58</f>
+        <v>30</v>
+      </c>
+      <c r="L58">
+        <v>20</v>
+      </c>
+      <c r="M58">
+        <v>20</v>
+      </c>
+      <c r="N58">
+        <f>M58/D58*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>40</v>
+      </c>
+      <c r="E59">
+        <v>23</v>
+      </c>
+      <c r="F59">
+        <v>17</v>
+      </c>
+      <c r="G59">
+        <f>F59/D59*100</f>
+        <v>42.5</v>
+      </c>
+      <c r="H59">
+        <v>28</v>
+      </c>
+      <c r="I59">
+        <v>12</v>
+      </c>
+      <c r="J59">
+        <f>I59/D59*100</f>
+        <v>30</v>
+      </c>
+      <c r="K59">
+        <f t="shared" ref="K59:K65" si="18">G59-J59</f>
+        <v>12.5</v>
+      </c>
+      <c r="L59">
+        <v>16</v>
+      </c>
+      <c r="M59">
+        <v>24</v>
+      </c>
+      <c r="N59">
+        <f t="shared" ref="N59:N65" si="19">M59/D59*100</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>35</v>
+      </c>
+      <c r="E60">
+        <v>23</v>
+      </c>
+      <c r="F60">
+        <v>12</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ref="G60:G65" si="20">F60/D60*100</f>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="H60">
+        <v>25</v>
+      </c>
+      <c r="I60">
+        <v>10</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ref="J60:J65" si="21">I60/D60*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="18"/>
+        <v>5.7142857142857153</v>
+      </c>
+      <c r="L60">
+        <v>12</v>
+      </c>
+      <c r="M60">
+        <v>23</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="19"/>
+        <v>65.714285714285708</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61">
+        <v>35</v>
+      </c>
+      <c r="E61">
+        <v>22</v>
+      </c>
+      <c r="F61">
+        <v>13</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="20"/>
+        <v>37.142857142857146</v>
+      </c>
+      <c r="H61">
+        <v>29</v>
+      </c>
+      <c r="I61">
+        <v>6</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="21"/>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="18"/>
+        <v>20.000000000000004</v>
+      </c>
+      <c r="L61">
+        <v>15</v>
+      </c>
+      <c r="M61">
+        <v>20</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="19"/>
+        <v>57.142857142857139</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62">
+        <v>15</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>9</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="20"/>
+        <v>60</v>
+      </c>
+      <c r="H62">
+        <v>10</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="21"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="18"/>
+        <v>26.666666666666671</v>
+      </c>
+      <c r="L62">
+        <v>9</v>
+      </c>
+      <c r="M62">
+        <v>6</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="19"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63">
+        <v>15</v>
+      </c>
+      <c r="E63">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="20"/>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H63">
+        <v>9</v>
+      </c>
+      <c r="I63">
+        <v>6</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="18"/>
+        <v>6.6666666666666643</v>
+      </c>
+      <c r="L63">
+        <v>10</v>
+      </c>
+      <c r="M63">
+        <v>5</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="19"/>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64">
+        <v>13</v>
+      </c>
+      <c r="E64">
+        <v>6</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="20"/>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="H64">
+        <v>7</v>
+      </c>
+      <c r="I64">
+        <v>6</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="21"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="18"/>
+        <v>7.6923076923076934</v>
+      </c>
+      <c r="L64">
+        <v>8</v>
+      </c>
+      <c r="M64">
+        <v>5</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="19"/>
+        <v>38.461538461538467</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <v>13</v>
+      </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="20"/>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="H65">
+        <v>11</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="21"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="18"/>
+        <v>38.46153846153846</v>
+      </c>
+      <c r="L65">
+        <v>9</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="19"/>
+        <v>30.76923076923077</v>
+      </c>
+    </row>
+    <row r="78" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C78" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" t="s">
+        <v>39</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J78" t="s">
+        <v>38</v>
+      </c>
+      <c r="K78" t="s">
+        <v>33</v>
+      </c>
+      <c r="L78" t="s">
+        <v>34</v>
+      </c>
+      <c r="M78" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79">
+        <v>3.52</v>
+      </c>
+      <c r="E79">
+        <v>3.59</v>
+      </c>
+      <c r="F79">
+        <v>2.4</v>
+      </c>
+      <c r="I79" t="s">
+        <v>46</v>
+      </c>
+      <c r="J79">
+        <v>4.3</v>
+      </c>
+      <c r="K79">
+        <f>AVERAGE(D83,D85)</f>
+        <v>3.0550000000000002</v>
+      </c>
+      <c r="L79">
+        <f>AVERAGE(E83,E85)</f>
+        <v>2.9299999999999997</v>
+      </c>
+      <c r="M79">
+        <f>AVERAGE(F83,F85)</f>
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="80" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>3.01</v>
+      </c>
+      <c r="E80">
+        <v>2.98</v>
+      </c>
+      <c r="F80">
+        <v>2.21</v>
+      </c>
+      <c r="I80" t="s">
+        <v>47</v>
+      </c>
+      <c r="J80">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="K80">
+        <f>AVERAGE(D84,D86)</f>
+        <v>3.04</v>
+      </c>
+      <c r="L80">
+        <f>AVERAGE(E84,E86)</f>
+        <v>2.88</v>
+      </c>
+      <c r="M80">
+        <f>AVERAGE(F84,F86)</f>
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81">
+        <v>3.15</v>
+      </c>
+      <c r="E81">
+        <v>3.03</v>
+      </c>
+      <c r="F81">
+        <v>3.78</v>
+      </c>
+      <c r="I81" t="s">
+        <v>48</v>
+      </c>
+      <c r="J81">
+        <v>4.16</v>
+      </c>
+      <c r="K81">
+        <f>AVERAGE(D79,D81)</f>
+        <v>3.335</v>
+      </c>
+      <c r="L81">
+        <f>AVERAGE(E81,E79)</f>
+        <v>3.3099999999999996</v>
+      </c>
+      <c r="M81">
+        <f>AVERAGE(F81,F79)</f>
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82">
+        <v>2.87</v>
+      </c>
+      <c r="E82">
+        <v>2.73</v>
+      </c>
+      <c r="F82">
+        <v>3.19</v>
+      </c>
+      <c r="I82" t="s">
+        <v>49</v>
+      </c>
+      <c r="J82">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="K82">
+        <f>AVERAGE(D82,D80)</f>
+        <v>2.94</v>
+      </c>
+      <c r="L82">
+        <f>AVERAGE(E82,E80)</f>
+        <v>2.855</v>
+      </c>
+      <c r="M82">
+        <f>AVERAGE(F82,F80)</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83">
+        <v>2.91</v>
+      </c>
+      <c r="E83">
+        <v>2.76</v>
+      </c>
+      <c r="F83">
+        <v>3.59</v>
+      </c>
+      <c r="I83" t="s">
+        <v>40</v>
+      </c>
+      <c r="J83">
+        <f>AVERAGE(J79:J82)</f>
+        <v>4.1475</v>
+      </c>
+      <c r="K83">
+        <f>AVERAGE(K79:K82)</f>
+        <v>3.0924999999999998</v>
+      </c>
+      <c r="L83">
+        <f>AVERAGE(L79:L82)</f>
+        <v>2.9937499999999999</v>
+      </c>
+      <c r="M83">
+        <f>AVERAGE(M79:M82)</f>
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84">
+        <v>3.04</v>
+      </c>
+      <c r="E84">
+        <v>2.85</v>
+      </c>
+      <c r="F84">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85">
+        <v>3.2</v>
+      </c>
+      <c r="E85">
+        <v>3.1</v>
+      </c>
+      <c r="F85">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86">
+        <v>3.04</v>
+      </c>
+      <c r="E86">
+        <v>2.91</v>
+      </c>
+      <c r="F86">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87">
+        <f>AVERAGE(D79:D86)</f>
+        <v>3.0924999999999998</v>
+      </c>
+      <c r="E87">
+        <f>AVERAGE(E79:E86)</f>
+        <v>2.9937500000000004</v>
+      </c>
+      <c r="F87">
+        <f>AVERAGE(F79:F86)</f>
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C90" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D90" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90" t="s">
+        <v>33</v>
+      </c>
+      <c r="F90" t="s">
+        <v>34</v>
+      </c>
+      <c r="G90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>46</v>
+      </c>
+      <c r="D91">
+        <v>3.98</v>
+      </c>
+      <c r="E91">
+        <v>3.54</v>
+      </c>
+      <c r="F91">
+        <v>3.58</v>
+      </c>
+      <c r="G91">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92">
+        <v>3.64</v>
+      </c>
+      <c r="E92">
+        <v>3.39</v>
+      </c>
+      <c r="F92">
+        <v>3.14</v>
+      </c>
+      <c r="G92">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>48</v>
+      </c>
+      <c r="D93">
+        <v>4.01</v>
+      </c>
+      <c r="E93">
+        <v>3.7</v>
+      </c>
+      <c r="F93">
+        <v>3.28</v>
+      </c>
+      <c r="G93">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94">
+        <v>4.3</v>
+      </c>
+      <c r="E94">
+        <v>3.57</v>
+      </c>
+      <c r="F94">
+        <v>3.54</v>
+      </c>
+      <c r="G94">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95">
+        <f>AVERAGE(D91:D94)</f>
+        <v>3.9824999999999999</v>
+      </c>
+      <c r="E95">
+        <f>AVERAGE(E91:E94)</f>
+        <v>3.55</v>
+      </c>
+      <c r="F95">
+        <f>AVERAGE(F91:F94)</f>
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="G95">
+        <f>AVERAGE(G91:G94)</f>
+        <v>3.0475000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/Summary.xlsx
+++ b/evaluation/Summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8992E8-7F12-4A5E-81E4-8B100371660C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3453BF6-1015-419D-A377-2D7DE17D9D55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="135" windowWidth="28230" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2190" yWindow="1995" windowWidth="26475" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="52">
   <si>
     <t>ang</t>
   </si>
@@ -180,6 +180,9 @@
   <si>
     <t>Emotion</t>
   </si>
+  <si>
+    <t>S05F</t>
+  </si>
 </sst>
 </file>
 
@@ -330,28 +333,28 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="8"/>
                   <c:pt idx="0">
-                    <c:v>3.0838713359876091</c:v>
+                    <c:v>7.4425400558421817</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.2911838256430208</c:v>
+                    <c:v>7.9113028758734432</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>11.030573411399871</c:v>
+                    <c:v>9.7569035250272638</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.5220898611689329</c:v>
+                    <c:v>4.4729299836626666</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.3426336113124435</c:v>
+                    <c:v>6.0963221839096153</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5.1043512175887971</c:v>
+                    <c:v>4.9386488606441885</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.6434473981894371</c:v>
+                    <c:v>5.7776476583624001</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>5.8925940524365661</c:v>
+                    <c:v>5.6258985314503676</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -363,28 +366,28 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="8"/>
                   <c:pt idx="0">
-                    <c:v>3.0838713359876091</c:v>
+                    <c:v>7.4425400558421817</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.2911838256430208</c:v>
+                    <c:v>7.9113028758734432</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>11.030573411399871</c:v>
+                    <c:v>9.7569035250272638</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.5220898611689329</c:v>
+                    <c:v>4.4729299836626666</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.3426336113124435</c:v>
+                    <c:v>6.0963221839096153</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5.1043512175887971</c:v>
+                    <c:v>4.9386488606441885</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.6434473981894371</c:v>
+                    <c:v>5.7776476583624001</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>5.8925940524365661</c:v>
+                    <c:v>5.6258985314503676</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -442,28 +445,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>57.73391812865497</c:v>
+                  <c:v>51.520467836257311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.508040935672511</c:v>
+                  <c:v>49.739766081871338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.879193722943725</c:v>
+                  <c:v>57.103354978354979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.28950216450216</c:v>
+                  <c:v>48.356601731601728</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.372029133657037</c:v>
+                  <c:v>39.00671421601654</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.878971803390407</c:v>
+                  <c:v>39.848631988166872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.672718585762063</c:v>
+                  <c:v>44.199713330148107</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.514333492594361</c:v>
+                  <c:v>35.396082178690875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -509,28 +512,28 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="8"/>
                   <c:pt idx="0">
-                    <c:v>3.1167793964214656</c:v>
+                    <c:v>4.2117647626364452</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.777313310823393</c:v>
+                    <c:v>9.5093905123812181</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.6347744527553392</c:v>
+                    <c:v>6.6540762580337303</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.0825390674169881</c:v>
+                    <c:v>5.6577123567169494</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5.7095949414106402</c:v>
+                    <c:v>4.9559820285539748</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5.6701641811458963</c:v>
+                    <c:v>6.571255862605903</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>5.9064481535960756</c:v>
+                    <c:v>6.1166008311889328</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>6.3865606697643571</c:v>
+                    <c:v>5.8501067153980859</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -542,28 +545,28 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="8"/>
                   <c:pt idx="0">
-                    <c:v>3.1167793964214656</c:v>
+                    <c:v>4.2117647626364452</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.777313310823393</c:v>
+                    <c:v>9.5093905123812181</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.6347744527553392</c:v>
+                    <c:v>6.6540762580337303</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.0825390674169881</c:v>
+                    <c:v>5.6577123567169494</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5.7095949414106402</c:v>
+                    <c:v>4.9559820285539748</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5.6701641811458963</c:v>
+                    <c:v>6.571255862605903</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>5.9064481535960756</c:v>
+                    <c:v>6.1166008311889328</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>6.3865606697643571</c:v>
+                    <c:v>5.8501067153980859</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -621,28 +624,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>25.540935672514621</c:v>
+                  <c:v>28.432748538011698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.476608187134502</c:v>
+                  <c:v>39.847953216374265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.280167748917748</c:v>
+                  <c:v>37.9491341991342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.392721861471863</c:v>
+                  <c:v>33.239177489177493</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.502321322088765</c:v>
+                  <c:v>23.801857057671011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.653207257858419</c:v>
+                  <c:v>27.558929442650374</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.075728619206878</c:v>
+                  <c:v>35.075967510750118</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.908265647396082</c:v>
+                  <c:v>22.203535594839941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,28 +691,28 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="8"/>
                   <c:pt idx="0">
-                    <c:v>2.3635427342644704</c:v>
+                    <c:v>6.2672967797786159</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.3623929945833875</c:v>
+                    <c:v>5.6329633393404714</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.3739699125285592</c:v>
+                    <c:v>6.8728923006578126</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.1491165586357903</c:v>
+                    <c:v>6.6437909303808471</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.4313864187881609</c:v>
+                    <c:v>5.6764108381996756</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6.1206392162308161</c:v>
+                    <c:v>5.4254104132169276</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.6941677804105348</c:v>
+                    <c:v>5.1999653422169025</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2.1868808290792443</c:v>
+                    <c:v>4.5073897859887078</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -721,28 +724,28 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="8"/>
                   <c:pt idx="0">
-                    <c:v>2.3635427342644704</c:v>
+                    <c:v>6.2672967797786159</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.3623929945833875</c:v>
+                    <c:v>5.6329633393404714</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.3739699125285592</c:v>
+                    <c:v>6.8728923006578126</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.1491165586357903</c:v>
+                    <c:v>6.6437909303808471</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.4313864187881609</c:v>
+                    <c:v>5.6764108381996756</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6.1206392162308161</c:v>
+                    <c:v>5.4254104132169276</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.6941677804105348</c:v>
+                    <c:v>5.1999653422169025</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2.1868808290792443</c:v>
+                    <c:v>4.5073897859887078</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -800,28 +803,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>53.157894736842103</c:v>
+                  <c:v>47.859649122807014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.897660818713447</c:v>
+                  <c:v>50.584795321637422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.112283549783555</c:v>
+                  <c:v>52.839826839826841</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.140827922077918</c:v>
+                  <c:v>48.587662337662337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.81088678763097</c:v>
+                  <c:v>35.485073066468416</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.189837294488456</c:v>
+                  <c:v>32.224597108318036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.540850453893938</c:v>
+                  <c:v>37.078834209268997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.984233158146203</c:v>
+                  <c:v>22.325848064978501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1137,7 +1140,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$78</c:f>
+              <c:f>Sheet1!$J$85</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1158,7 +1161,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$79:$I$82</c:f>
+              <c:f>Sheet1!$I$86:$I$89</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1178,21 +1181,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$79:$J$82</c:f>
+              <c:f>Sheet1!$J$86:$J$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.3</c:v>
+                  <c:v>3.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0199999999999996</c:v>
+                  <c:v>3.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.16</c:v>
+                  <c:v>3.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1100000000000003</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,7 +1211,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$78</c:f>
+              <c:f>Sheet1!$K$85</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1229,7 +1232,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$79:$I$82</c:f>
+              <c:f>Sheet1!$I$86:$I$89</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1249,7 +1252,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$79:$K$82</c:f>
+              <c:f>Sheet1!$K$86:$K$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1279,7 +1282,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$78</c:f>
+              <c:f>Sheet1!$L$85</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1300,7 +1303,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$79:$I$82</c:f>
+              <c:f>Sheet1!$I$86:$I$89</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1320,7 +1323,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$79:$L$82</c:f>
+              <c:f>Sheet1!$L$86:$L$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1350,7 +1353,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$78</c:f>
+              <c:f>Sheet1!$M$85</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1371,7 +1374,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$79:$I$82</c:f>
+              <c:f>Sheet1!$I$86:$I$89</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1391,7 +1394,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$79:$M$82</c:f>
+              <c:f>Sheet1!$M$86:$M$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1795,7 +1798,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$90</c:f>
+              <c:f>Sheet1!$D$97</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1816,7 +1819,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$91:$C$94</c:f>
+              <c:f>Sheet1!$C$98:$C$101</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1836,7 +1839,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$91:$D$94</c:f>
+              <c:f>Sheet1!$D$98:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1866,7 +1869,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$90</c:f>
+              <c:f>Sheet1!$E$97</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1887,7 +1890,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$91:$C$94</c:f>
+              <c:f>Sheet1!$C$98:$C$101</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1907,7 +1910,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$91:$E$94</c:f>
+              <c:f>Sheet1!$E$98:$E$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1937,7 +1940,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$90</c:f>
+              <c:f>Sheet1!$F$97</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1958,7 +1961,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$91:$C$94</c:f>
+              <c:f>Sheet1!$C$98:$C$101</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1978,7 +1981,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$91:$F$94</c:f>
+              <c:f>Sheet1!$F$98:$F$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2008,7 +2011,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$90</c:f>
+              <c:f>Sheet1!$G$97</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2029,7 +2032,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$91:$C$94</c:f>
+              <c:f>Sheet1!$C$98:$C$101</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2049,7 +2052,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$91:$G$94</c:f>
+              <c:f>Sheet1!$G$98:$G$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4095,13 +4098,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>434837</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>11597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>103532</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>87797</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4131,13 +4134,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>110531</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>12168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>390140</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>88368</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4429,10 +4432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:W95"/>
+  <dimension ref="C2:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4863,28 +4866,28 @@
         <v>21</v>
       </c>
       <c r="R16">
-        <f>(G16+G30+G44+G58)/4</f>
-        <v>57.73391812865497</v>
+        <f>(G16+G30+G44+G58+G72)/5</f>
+        <v>51.520467836257311</v>
       </c>
       <c r="S16">
-        <f>(J16+J30+J44+J58)/4</f>
-        <v>25.540935672514621</v>
+        <f>(J16+J30+J44+J58+J72)/5</f>
+        <v>28.432748538011698</v>
       </c>
       <c r="T16">
-        <f>(N16+N30+N44+N58)/4</f>
-        <v>53.157894736842103</v>
+        <f>(N16+N30+N44+N58+N72)/5</f>
+        <v>47.859649122807014</v>
       </c>
       <c r="U16">
-        <f>STDEV(G16,G30,G44,G58)/2</f>
-        <v>3.0838713359876091</v>
+        <f>STDEV(G16,G30,G44,G58,G72)/2</f>
+        <v>7.4425400558421817</v>
       </c>
       <c r="V16">
-        <f>STDEV(J16,J30,J44,J58)/2</f>
-        <v>3.1167793964214656</v>
+        <f>STDEV(J16,J30,J44,J58,J72)/2</f>
+        <v>4.2117647626364452</v>
       </c>
       <c r="W16">
-        <f>STDEV(N16,N30,N44,N58)/2</f>
-        <v>2.3635427342644704</v>
+        <f>STDEV(N16,N30,N44,N58,N72)/2</f>
+        <v>6.2672967797786159</v>
       </c>
     </row>
     <row r="17" spans="3:23" x14ac:dyDescent="0.25">
@@ -4932,28 +4935,28 @@
         <v>20</v>
       </c>
       <c r="R17">
-        <f>(G17+G31+G45+G59)/4</f>
-        <v>55.508040935672511</v>
+        <f t="shared" ref="R17:R23" si="6">(G17+G31+G45+G59+G73)/5</f>
+        <v>49.739766081871338</v>
       </c>
       <c r="S17">
-        <f>(J17+J31+J45+J59)/4</f>
-        <v>41.476608187134502</v>
+        <f t="shared" ref="S17:S23" si="7">(J17+J31+J45+J59+J73)/5</f>
+        <v>39.847953216374265</v>
       </c>
       <c r="T17">
-        <f>(N17+N31+N45+N59)/4</f>
-        <v>54.897660818713447</v>
+        <f t="shared" ref="T17:T23" si="8">(N17+N31+N45+N59+N73)/5</f>
+        <v>50.584795321637422</v>
       </c>
       <c r="U17">
-        <f t="shared" ref="U17:U23" si="6">STDEV(G17,G31,G45,G59)/2</f>
-        <v>5.2911838256430208</v>
+        <f t="shared" ref="U17:U23" si="9">STDEV(G17,G31,G45,G59,G73)/2</f>
+        <v>7.9113028758734432</v>
       </c>
       <c r="V17">
-        <f t="shared" ref="V17:V23" si="7">STDEV(J17,J31,J45,J59)/2</f>
-        <v>10.777313310823393</v>
+        <f t="shared" ref="V17:V23" si="10">STDEV(J17,J31,J45,J59,J73)/2</f>
+        <v>9.5093905123812181</v>
       </c>
       <c r="W17">
-        <f t="shared" ref="W17:W23" si="8">STDEV(N17,N31,N45,N59)/2</f>
-        <v>3.3623929945833875</v>
+        <f t="shared" ref="W17:W23" si="11">STDEV(N17,N31,N45,N59,N73)/2</f>
+        <v>5.6329633393404714</v>
       </c>
     </row>
     <row r="18" spans="3:23" x14ac:dyDescent="0.25">
@@ -5001,28 +5004,28 @@
         <v>19</v>
       </c>
       <c r="R18">
-        <f t="shared" ref="R18:R23" si="9">(G18+G32+G46+G60)/4</f>
-        <v>58.879193722943725</v>
+        <f t="shared" si="6"/>
+        <v>57.103354978354979</v>
       </c>
       <c r="S18">
-        <f>(J18+J32+J46+J60)/4</f>
-        <v>37.280167748917748</v>
+        <f t="shared" si="7"/>
+        <v>37.9491341991342</v>
       </c>
       <c r="T18">
-        <f>(N18+N32+N46+N60)/4</f>
-        <v>55.112283549783555</v>
+        <f t="shared" si="8"/>
+        <v>52.839826839826841</v>
       </c>
       <c r="U18">
-        <f t="shared" si="6"/>
-        <v>11.030573411399871</v>
+        <f t="shared" si="9"/>
+        <v>9.7569035250272638</v>
       </c>
       <c r="V18">
-        <f t="shared" si="7"/>
-        <v>7.6347744527553392</v>
+        <f t="shared" si="10"/>
+        <v>6.6540762580337303</v>
       </c>
       <c r="W18">
-        <f t="shared" si="8"/>
-        <v>7.3739699125285592</v>
+        <f t="shared" si="11"/>
+        <v>6.8728923006578126</v>
       </c>
     </row>
     <row r="19" spans="3:23" x14ac:dyDescent="0.25">
@@ -5070,28 +5073,28 @@
         <v>18</v>
       </c>
       <c r="R19">
+        <f t="shared" si="6"/>
+        <v>48.356601731601728</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="7"/>
+        <v>33.239177489177493</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="8"/>
+        <v>48.587662337662337</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="9"/>
-        <v>50.28950216450216</v>
-      </c>
-      <c r="S19">
-        <f>(J19+J33+J47+J61)/4</f>
-        <v>31.392721861471863</v>
-      </c>
-      <c r="T19">
-        <f>(N19+N33+N47+N61)/4</f>
-        <v>52.140827922077918</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="6"/>
-        <v>4.5220898611689329</v>
+        <v>4.4729299836626666</v>
       </c>
       <c r="V19">
-        <f t="shared" si="7"/>
-        <v>6.0825390674169881</v>
+        <f t="shared" si="10"/>
+        <v>5.6577123567169494</v>
       </c>
       <c r="W19">
-        <f t="shared" si="8"/>
-        <v>6.1491165586357903</v>
+        <f t="shared" si="11"/>
+        <v>6.6437909303808471</v>
       </c>
     </row>
     <row r="20" spans="3:23" x14ac:dyDescent="0.25">
@@ -5139,28 +5142,28 @@
         <v>17</v>
       </c>
       <c r="R20">
+        <f t="shared" si="6"/>
+        <v>39.00671421601654</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="7"/>
+        <v>23.801857057671011</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="8"/>
+        <v>35.485073066468416</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="9"/>
-        <v>41.372029133657037</v>
-      </c>
-      <c r="S20">
-        <f>(J20+J34+J48+J62)/4</f>
-        <v>23.502321322088765</v>
-      </c>
-      <c r="T20">
-        <f>(N20+N34+N48+N62)/4</f>
-        <v>39.81088678763097</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="6"/>
-        <v>6.3426336113124435</v>
+        <v>6.0963221839096153</v>
       </c>
       <c r="V20">
-        <f t="shared" si="7"/>
-        <v>5.7095949414106402</v>
+        <f t="shared" si="10"/>
+        <v>4.9559820285539748</v>
       </c>
       <c r="W20">
-        <f t="shared" si="8"/>
-        <v>3.4313864187881609</v>
+        <f t="shared" si="11"/>
+        <v>5.6764108381996756</v>
       </c>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.25">
@@ -5208,28 +5211,28 @@
         <v>16</v>
       </c>
       <c r="R21">
+        <f t="shared" si="6"/>
+        <v>39.848631988166872</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="7"/>
+        <v>27.558929442650374</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="8"/>
+        <v>32.224597108318036</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="9"/>
-        <v>37.878971803390407</v>
-      </c>
-      <c r="S21">
-        <f>(J21+J35+J49+J63)/4</f>
-        <v>23.653207257858419</v>
-      </c>
-      <c r="T21">
-        <f>(N21+N35+N49+N63)/4</f>
-        <v>31.189837294488456</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="6"/>
-        <v>5.1043512175887971</v>
+        <v>4.9386488606441885</v>
       </c>
       <c r="V21">
-        <f t="shared" si="7"/>
-        <v>5.6701641811458963</v>
+        <f t="shared" si="10"/>
+        <v>6.571255862605903</v>
       </c>
       <c r="W21">
-        <f t="shared" si="8"/>
-        <v>6.1206392162308161</v>
+        <f t="shared" si="11"/>
+        <v>5.4254104132169276</v>
       </c>
     </row>
     <row r="22" spans="3:23" x14ac:dyDescent="0.25">
@@ -5277,28 +5280,28 @@
         <v>15</v>
       </c>
       <c r="R22">
+        <f t="shared" si="6"/>
+        <v>44.199713330148107</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="7"/>
+        <v>35.075967510750118</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="8"/>
+        <v>37.078834209268997</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="9"/>
-        <v>44.672718585762063</v>
-      </c>
-      <c r="S22">
-        <f>(J22+J36+J50+J64)/4</f>
-        <v>38.075728619206878</v>
-      </c>
-      <c r="T22">
-        <f>(N22+N36+N50+N64)/4</f>
-        <v>41.540850453893938</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="6"/>
-        <v>6.6434473981894371</v>
+        <v>5.7776476583624001</v>
       </c>
       <c r="V22">
-        <f t="shared" si="7"/>
-        <v>5.9064481535960756</v>
+        <f t="shared" si="10"/>
+        <v>6.1166008311889328</v>
       </c>
       <c r="W22">
-        <f t="shared" si="8"/>
-        <v>1.6941677804105348</v>
+        <f t="shared" si="11"/>
+        <v>5.1999653422169025</v>
       </c>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.25">
@@ -5346,42 +5349,42 @@
         <v>14</v>
       </c>
       <c r="R23">
+        <f>(G23+G37+G51+G65+G79)/5</f>
+        <v>35.396082178690875</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="7"/>
+        <v>22.203535594839941</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="8"/>
+        <v>22.325848064978501</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="9"/>
-        <v>37.514333492594361</v>
-      </c>
-      <c r="S23">
-        <f>(J23+J37+J51+J65)/4</f>
-        <v>23.908265647396082</v>
-      </c>
-      <c r="T23">
-        <f>(N23+N37+N51+N65)/4</f>
-        <v>25.984233158146203</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="6"/>
-        <v>5.8925940524365661</v>
+        <v>5.6258985314503676</v>
       </c>
       <c r="V23">
-        <f t="shared" si="7"/>
-        <v>6.3865606697643571</v>
+        <f t="shared" si="10"/>
+        <v>5.8501067153980859</v>
       </c>
       <c r="W23">
-        <f t="shared" si="8"/>
-        <v>2.1868808290792443</v>
+        <f t="shared" si="11"/>
+        <v>4.5073897859887078</v>
       </c>
     </row>
     <row r="24" spans="3:23" x14ac:dyDescent="0.25">
       <c r="R24">
         <f>AVERAGE(R16:R23)</f>
-        <v>47.981088495897161</v>
+        <v>45.646416542638462</v>
       </c>
       <c r="S24">
         <f>AVERAGE(S16:S23)</f>
-        <v>30.603744539573608</v>
+        <v>31.013662881076137</v>
       </c>
       <c r="T24">
         <f>AVERAGE(T16:T23)</f>
-        <v>44.229309340197076</v>
+        <v>40.873285758870949</v>
       </c>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.25">
@@ -5447,7 +5450,7 @@
         <v>28</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:G37" si="10">F30/D30*100</f>
+        <f t="shared" ref="G30:G37" si="12">F30/D30*100</f>
         <v>62.222222222222221</v>
       </c>
       <c r="H30">
@@ -5457,11 +5460,11 @@
         <v>15</v>
       </c>
       <c r="J30">
-        <f t="shared" ref="J30:J37" si="11">I30/D30*100</f>
+        <f t="shared" ref="J30:J37" si="13">I30/D30*100</f>
         <v>33.333333333333329</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:K37" si="12">G30-J30</f>
+        <f t="shared" ref="K30:K37" si="14">G30-J30</f>
         <v>28.888888888888893</v>
       </c>
       <c r="L30">
@@ -5489,7 +5492,7 @@
         <v>25</v>
       </c>
       <c r="G31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>55.555555555555557</v>
       </c>
       <c r="H31">
@@ -5499,11 +5502,11 @@
         <v>13</v>
       </c>
       <c r="J31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>28.888888888888886</v>
       </c>
       <c r="K31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>26.666666666666671</v>
       </c>
       <c r="L31">
@@ -5513,7 +5516,7 @@
         <v>23</v>
       </c>
       <c r="N31">
-        <f t="shared" ref="N31:N37" si="13">M31/D31*100</f>
+        <f t="shared" ref="N31:N37" si="15">M31/D31*100</f>
         <v>51.111111111111107</v>
       </c>
     </row>
@@ -5531,7 +5534,7 @@
         <v>20</v>
       </c>
       <c r="G32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>60.606060606060609</v>
       </c>
       <c r="H32">
@@ -5541,11 +5544,11 @@
         <v>14</v>
       </c>
       <c r="J32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42.424242424242422</v>
       </c>
       <c r="K32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.181818181818187</v>
       </c>
       <c r="L32">
@@ -5555,7 +5558,7 @@
         <v>16</v>
       </c>
       <c r="N32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>48.484848484848484</v>
       </c>
     </row>
@@ -5573,7 +5576,7 @@
         <v>17</v>
       </c>
       <c r="G33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>51.515151515151516</v>
       </c>
       <c r="H33">
@@ -5583,11 +5586,11 @@
         <v>10</v>
       </c>
       <c r="J33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>30.303030303030305</v>
       </c>
       <c r="K33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21.212121212121211</v>
       </c>
       <c r="L33">
@@ -5597,7 +5600,7 @@
         <v>18</v>
       </c>
       <c r="N33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>54.54545454545454</v>
       </c>
     </row>
@@ -5615,7 +5618,7 @@
         <v>9</v>
       </c>
       <c r="G34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32.142857142857146</v>
       </c>
       <c r="H34">
@@ -5625,11 +5628,11 @@
         <v>9</v>
       </c>
       <c r="J34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>32.142857142857146</v>
       </c>
       <c r="K34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L34">
@@ -5639,7 +5642,7 @@
         <v>12</v>
       </c>
       <c r="N34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>42.857142857142854</v>
       </c>
     </row>
@@ -5657,7 +5660,7 @@
         <v>11</v>
       </c>
       <c r="G35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>39.285714285714285</v>
       </c>
       <c r="H35">
@@ -5667,11 +5670,11 @@
         <v>6</v>
       </c>
       <c r="J35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21.428571428571427</v>
       </c>
       <c r="K35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>17.857142857142858</v>
       </c>
       <c r="L35">
@@ -5681,7 +5684,7 @@
         <v>12</v>
       </c>
       <c r="N35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>42.857142857142854</v>
       </c>
     </row>
@@ -5699,7 +5702,7 @@
         <v>9</v>
       </c>
       <c r="G36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>39.130434782608695</v>
       </c>
       <c r="H36">
@@ -5709,11 +5712,11 @@
         <v>7</v>
       </c>
       <c r="J36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>30.434782608695656</v>
       </c>
       <c r="K36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.6956521739130395</v>
       </c>
       <c r="L36">
@@ -5723,7 +5726,7 @@
         <v>9</v>
       </c>
       <c r="N36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>39.130434782608695</v>
       </c>
     </row>
@@ -5741,7 +5744,7 @@
         <v>8</v>
       </c>
       <c r="G37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>34.782608695652172</v>
       </c>
       <c r="H37">
@@ -5751,11 +5754,11 @@
         <v>4</v>
       </c>
       <c r="J37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>17.391304347826086</v>
       </c>
       <c r="K37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>17.391304347826086</v>
       </c>
       <c r="L37">
@@ -5765,7 +5768,7 @@
         <v>5</v>
       </c>
       <c r="N37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21.739130434782609</v>
       </c>
     </row>
@@ -5888,7 +5891,7 @@
         <v>33.333333333333329</v>
       </c>
       <c r="K45">
-        <f t="shared" ref="K45:K51" si="14">G45-J45</f>
+        <f t="shared" ref="K45:K51" si="16">G45-J45</f>
         <v>22.222222222222229</v>
       </c>
       <c r="L45">
@@ -5898,7 +5901,7 @@
         <v>11</v>
       </c>
       <c r="N45">
-        <f t="shared" ref="N45:N51" si="15">M45/D45*100</f>
+        <f t="shared" ref="N45:N51" si="17">M45/D45*100</f>
         <v>61.111111111111114</v>
       </c>
     </row>
@@ -5916,7 +5919,7 @@
         <v>14</v>
       </c>
       <c r="G46">
-        <f t="shared" ref="G46:G51" si="16">F46/D46*100</f>
+        <f t="shared" ref="G46:G51" si="18">F46/D46*100</f>
         <v>87.5</v>
       </c>
       <c r="H46">
@@ -5926,11 +5929,11 @@
         <v>9</v>
       </c>
       <c r="J46">
-        <f t="shared" ref="J46:J51" si="17">I46/D46*100</f>
+        <f t="shared" ref="J46:J51" si="19">I46/D46*100</f>
         <v>56.25</v>
       </c>
       <c r="K46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>31.25</v>
       </c>
       <c r="L46">
@@ -5940,7 +5943,7 @@
         <v>11</v>
       </c>
       <c r="N46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>68.75</v>
       </c>
     </row>
@@ -5958,7 +5961,7 @@
         <v>9</v>
       </c>
       <c r="G47">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>56.25</v>
       </c>
       <c r="H47">
@@ -5968,11 +5971,11 @@
         <v>5</v>
       </c>
       <c r="J47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>31.25</v>
       </c>
       <c r="K47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="L47">
@@ -5982,7 +5985,7 @@
         <v>10</v>
       </c>
       <c r="N47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>62.5</v>
       </c>
     </row>
@@ -6000,7 +6003,7 @@
         <v>10</v>
       </c>
       <c r="G48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>38.461538461538467</v>
       </c>
       <c r="H48">
@@ -6010,11 +6013,11 @@
         <v>5</v>
       </c>
       <c r="J48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>19.230769230769234</v>
       </c>
       <c r="K48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.230769230769234</v>
       </c>
       <c r="L48">
@@ -6024,7 +6027,7 @@
         <v>12</v>
       </c>
       <c r="N48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>46.153846153846153</v>
       </c>
     </row>
@@ -6042,7 +6045,7 @@
         <v>11</v>
       </c>
       <c r="G49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>42.307692307692307</v>
       </c>
       <c r="H49">
@@ -6052,11 +6055,11 @@
         <v>5</v>
       </c>
       <c r="J49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>19.230769230769234</v>
       </c>
       <c r="K49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>23.076923076923073</v>
       </c>
       <c r="L49">
@@ -6066,7 +6069,7 @@
         <v>9</v>
       </c>
       <c r="N49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>34.615384615384613</v>
       </c>
     </row>
@@ -6084,7 +6087,7 @@
         <v>10</v>
       </c>
       <c r="G50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>28.571428571428569</v>
       </c>
       <c r="H50">
@@ -6094,11 +6097,11 @@
         <v>9</v>
       </c>
       <c r="J50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>25.714285714285712</v>
       </c>
       <c r="K50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.8571428571428577</v>
       </c>
       <c r="L50">
@@ -6108,7 +6111,7 @@
         <v>16</v>
       </c>
       <c r="N50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>45.714285714285715</v>
       </c>
     </row>
@@ -6126,7 +6129,7 @@
         <v>9</v>
       </c>
       <c r="G51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>25.714285714285712</v>
       </c>
       <c r="H51">
@@ -6136,11 +6139,11 @@
         <v>7</v>
       </c>
       <c r="J51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="K51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.7142857142857117</v>
       </c>
       <c r="L51">
@@ -6150,7 +6153,7 @@
         <v>8</v>
       </c>
       <c r="N51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>22.857142857142858</v>
       </c>
     </row>
@@ -6273,7 +6276,7 @@
         <v>30</v>
       </c>
       <c r="K59">
-        <f t="shared" ref="K59:K65" si="18">G59-J59</f>
+        <f t="shared" ref="K59:K65" si="20">G59-J59</f>
         <v>12.5</v>
       </c>
       <c r="L59">
@@ -6283,7 +6286,7 @@
         <v>24</v>
       </c>
       <c r="N59">
-        <f t="shared" ref="N59:N65" si="19">M59/D59*100</f>
+        <f t="shared" ref="N59:N65" si="21">M59/D59*100</f>
         <v>60</v>
       </c>
     </row>
@@ -6301,7 +6304,7 @@
         <v>12</v>
       </c>
       <c r="G60">
-        <f t="shared" ref="G60:G65" si="20">F60/D60*100</f>
+        <f t="shared" ref="G60:G65" si="22">F60/D60*100</f>
         <v>34.285714285714285</v>
       </c>
       <c r="H60">
@@ -6311,11 +6314,11 @@
         <v>10</v>
       </c>
       <c r="J60">
-        <f t="shared" ref="J60:J65" si="21">I60/D60*100</f>
+        <f t="shared" ref="J60:J65" si="23">I60/D60*100</f>
         <v>28.571428571428569</v>
       </c>
       <c r="K60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.7142857142857153</v>
       </c>
       <c r="L60">
@@ -6325,7 +6328,7 @@
         <v>23</v>
       </c>
       <c r="N60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>65.714285714285708</v>
       </c>
     </row>
@@ -6343,7 +6346,7 @@
         <v>13</v>
       </c>
       <c r="G61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>37.142857142857146</v>
       </c>
       <c r="H61">
@@ -6353,11 +6356,11 @@
         <v>6</v>
       </c>
       <c r="J61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>17.142857142857142</v>
       </c>
       <c r="K61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>20.000000000000004</v>
       </c>
       <c r="L61">
@@ -6367,7 +6370,7 @@
         <v>20</v>
       </c>
       <c r="N61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>57.142857142857139</v>
       </c>
     </row>
@@ -6385,7 +6388,7 @@
         <v>9</v>
       </c>
       <c r="G62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>60</v>
       </c>
       <c r="H62">
@@ -6395,11 +6398,11 @@
         <v>5</v>
       </c>
       <c r="J62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>33.333333333333329</v>
       </c>
       <c r="K62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>26.666666666666671</v>
       </c>
       <c r="L62">
@@ -6409,7 +6412,7 @@
         <v>6</v>
       </c>
       <c r="N62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>40</v>
       </c>
     </row>
@@ -6427,7 +6430,7 @@
         <v>7</v>
       </c>
       <c r="G63">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>46.666666666666664</v>
       </c>
       <c r="H63">
@@ -6437,11 +6440,11 @@
         <v>6</v>
       </c>
       <c r="J63">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
       <c r="K63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.6666666666666643</v>
       </c>
       <c r="L63">
@@ -6451,7 +6454,7 @@
         <v>5</v>
       </c>
       <c r="N63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>33.333333333333329</v>
       </c>
     </row>
@@ -6469,7 +6472,7 @@
         <v>7</v>
       </c>
       <c r="G64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>53.846153846153847</v>
       </c>
       <c r="H64">
@@ -6479,11 +6482,11 @@
         <v>6</v>
       </c>
       <c r="J64">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>46.153846153846153</v>
       </c>
       <c r="K64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7.6923076923076934</v>
       </c>
       <c r="L64">
@@ -6493,7 +6496,7 @@
         <v>5</v>
       </c>
       <c r="N64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>38.461538461538467</v>
       </c>
     </row>
@@ -6511,7 +6514,7 @@
         <v>7</v>
       </c>
       <c r="G65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>53.846153846153847</v>
       </c>
       <c r="H65">
@@ -6521,11 +6524,11 @@
         <v>2</v>
       </c>
       <c r="J65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>15.384615384615385</v>
       </c>
       <c r="K65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>38.46153846153846</v>
       </c>
       <c r="L65">
@@ -6535,362 +6538,715 @@
         <v>4</v>
       </c>
       <c r="N65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>30.76923076923077</v>
       </c>
     </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" t="s">
+        <v>28</v>
+      </c>
+      <c r="L70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" t="s">
+        <v>24</v>
+      </c>
+      <c r="J71" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" t="s">
+        <v>24</v>
+      </c>
+      <c r="N71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72">
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>11</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <f>F72/D72*100</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="H72">
+        <v>9</v>
+      </c>
+      <c r="I72">
+        <v>6</v>
+      </c>
+      <c r="J72">
+        <f>I72/D72*100</f>
+        <v>40</v>
+      </c>
+      <c r="L72">
+        <v>11</v>
+      </c>
+      <c r="M72">
+        <v>4</v>
+      </c>
+      <c r="N72">
+        <f>M72/D72*100</f>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73">
+        <v>15</v>
+      </c>
+      <c r="E73">
+        <v>11</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ref="G73:G79" si="24">F73/D73*100</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="H73">
+        <v>10</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <f t="shared" ref="J73:J79" si="25">I73/D73*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="L73">
+        <v>10</v>
+      </c>
+      <c r="M73">
+        <v>5</v>
+      </c>
+      <c r="N73">
+        <f t="shared" ref="N73:N79" si="26">M73/D73*100</f>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="74" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74">
+        <v>32</v>
+      </c>
+      <c r="E74">
+        <v>16</v>
+      </c>
+      <c r="F74">
+        <v>16</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="H74">
+        <v>19</v>
+      </c>
+      <c r="I74">
+        <v>13</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="25"/>
+        <v>40.625</v>
+      </c>
+      <c r="L74">
+        <v>18</v>
+      </c>
+      <c r="M74">
+        <v>14</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="26"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75">
+        <v>32</v>
+      </c>
+      <c r="E75">
+        <v>19</v>
+      </c>
+      <c r="F75">
+        <v>13</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="24"/>
+        <v>40.625</v>
+      </c>
+      <c r="H75">
+        <v>19</v>
+      </c>
+      <c r="I75">
+        <v>13</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="25"/>
+        <v>40.625</v>
+      </c>
+      <c r="L75">
+        <v>21</v>
+      </c>
+      <c r="M75">
+        <v>11</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="26"/>
+        <v>34.375</v>
+      </c>
+    </row>
+    <row r="76" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76">
+        <v>44</v>
+      </c>
+      <c r="E76">
+        <v>31</v>
+      </c>
+      <c r="F76">
+        <v>13</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="24"/>
+        <v>29.545454545454547</v>
+      </c>
+      <c r="H76">
+        <v>33</v>
+      </c>
+      <c r="I76">
+        <v>11</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="25"/>
+        <v>25</v>
+      </c>
+      <c r="L76">
+        <v>36</v>
+      </c>
+      <c r="M76">
+        <v>8</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="26"/>
+        <v>18.181818181818183</v>
+      </c>
+    </row>
+    <row r="77" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77">
+        <v>44</v>
+      </c>
+      <c r="E77">
+        <v>23</v>
+      </c>
+      <c r="F77">
+        <v>21</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="24"/>
+        <v>47.727272727272727</v>
+      </c>
+      <c r="H77">
+        <v>25</v>
+      </c>
+      <c r="I77">
+        <v>19</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="25"/>
+        <v>43.18181818181818</v>
+      </c>
+      <c r="L77">
+        <v>28</v>
+      </c>
+      <c r="M77">
+        <v>16</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="26"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
     <row r="78" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C78" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D78" t="s">
-        <v>29</v>
-      </c>
-      <c r="E78" t="s">
-        <v>28</v>
-      </c>
-      <c r="F78" t="s">
-        <v>39</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J78" t="s">
-        <v>38</v>
-      </c>
-      <c r="K78" t="s">
-        <v>33</v>
-      </c>
-      <c r="L78" t="s">
-        <v>34</v>
-      </c>
-      <c r="M78" t="s">
-        <v>42</v>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78">
+        <v>26</v>
+      </c>
+      <c r="E78">
+        <v>13</v>
+      </c>
+      <c r="F78">
+        <v>11</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="24"/>
+        <v>42.307692307692307</v>
+      </c>
+      <c r="H78">
+        <v>20</v>
+      </c>
+      <c r="I78">
+        <v>6</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="25"/>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="L78">
+        <v>21</v>
+      </c>
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="26"/>
+        <v>19.230769230769234</v>
       </c>
     </row>
     <row r="79" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D79">
-        <v>3.52</v>
+        <v>26</v>
       </c>
       <c r="E79">
-        <v>3.59</v>
+        <v>19</v>
       </c>
       <c r="F79">
-        <v>2.4</v>
-      </c>
-      <c r="I79" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="24"/>
+        <v>26.923076923076923</v>
+      </c>
+      <c r="H79">
+        <v>22</v>
+      </c>
+      <c r="I79">
+        <v>4</v>
       </c>
       <c r="J79">
-        <v>4.3</v>
-      </c>
-      <c r="K79">
-        <f>AVERAGE(D83,D85)</f>
-        <v>3.0550000000000002</v>
+        <f t="shared" si="25"/>
+        <v>15.384615384615385</v>
       </c>
       <c r="L79">
-        <f>AVERAGE(E83,E85)</f>
-        <v>2.9299999999999997</v>
+        <v>24</v>
       </c>
       <c r="M79">
-        <f>AVERAGE(F83,F85)</f>
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="80" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80">
-        <v>3.01</v>
-      </c>
-      <c r="E80">
-        <v>2.98</v>
-      </c>
-      <c r="F80">
-        <v>2.21</v>
-      </c>
-      <c r="I80" t="s">
-        <v>47</v>
-      </c>
-      <c r="J80">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="K80">
-        <f>AVERAGE(D84,D86)</f>
-        <v>3.04</v>
-      </c>
-      <c r="L80">
-        <f>AVERAGE(E84,E86)</f>
-        <v>2.88</v>
-      </c>
-      <c r="M80">
-        <f>AVERAGE(F84,F86)</f>
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81">
-        <v>3.15</v>
-      </c>
-      <c r="E81">
-        <v>3.03</v>
-      </c>
-      <c r="F81">
-        <v>3.78</v>
-      </c>
-      <c r="I81" t="s">
-        <v>48</v>
-      </c>
-      <c r="J81">
-        <v>4.16</v>
-      </c>
-      <c r="K81">
-        <f>AVERAGE(D79,D81)</f>
-        <v>3.335</v>
-      </c>
-      <c r="L81">
-        <f>AVERAGE(E81,E79)</f>
-        <v>3.3099999999999996</v>
-      </c>
-      <c r="M81">
-        <f>AVERAGE(F81,F79)</f>
-        <v>3.09</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82">
-        <v>2.87</v>
-      </c>
-      <c r="E82">
-        <v>2.73</v>
-      </c>
-      <c r="F82">
-        <v>3.19</v>
-      </c>
-      <c r="I82" t="s">
-        <v>49</v>
-      </c>
-      <c r="J82">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="K82">
-        <f>AVERAGE(D82,D80)</f>
-        <v>2.94</v>
-      </c>
-      <c r="L82">
-        <f>AVERAGE(E82,E80)</f>
-        <v>2.855</v>
-      </c>
-      <c r="M82">
-        <f>AVERAGE(F82,F80)</f>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83">
-        <v>2.91</v>
-      </c>
-      <c r="E83">
-        <v>2.76</v>
-      </c>
-      <c r="F83">
-        <v>3.59</v>
-      </c>
-      <c r="I83" t="s">
-        <v>40</v>
-      </c>
-      <c r="J83">
-        <f>AVERAGE(J79:J82)</f>
-        <v>4.1475</v>
-      </c>
-      <c r="K83">
-        <f>AVERAGE(K79:K82)</f>
-        <v>3.0924999999999998</v>
-      </c>
-      <c r="L83">
-        <f>AVERAGE(L79:L82)</f>
-        <v>2.9937499999999999</v>
-      </c>
-      <c r="M83">
-        <f>AVERAGE(M79:M82)</f>
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84">
-        <v>3.04</v>
-      </c>
-      <c r="E84">
-        <v>2.85</v>
-      </c>
-      <c r="F84">
-        <v>2.21</v>
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="26"/>
+        <v>7.6923076923076925</v>
       </c>
     </row>
     <row r="85" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85">
-        <v>3.2</v>
-      </c>
-      <c r="E85">
-        <v>3.1</v>
-      </c>
-      <c r="F85">
-        <v>1.71</v>
+      <c r="C85" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" t="s">
+        <v>28</v>
+      </c>
+      <c r="F85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J85" t="s">
+        <v>38</v>
+      </c>
+      <c r="K85" t="s">
+        <v>33</v>
+      </c>
+      <c r="L85" t="s">
+        <v>34</v>
+      </c>
+      <c r="M85" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D86">
-        <v>3.04</v>
+        <v>3.52</v>
       </c>
       <c r="E86">
-        <v>2.91</v>
+        <v>3.59</v>
       </c>
       <c r="F86">
-        <v>1.87</v>
+        <v>2.4</v>
+      </c>
+      <c r="I86" t="s">
+        <v>46</v>
+      </c>
+      <c r="J86">
+        <v>3.62</v>
+      </c>
+      <c r="K86">
+        <f t="shared" ref="K86:M87" si="27">AVERAGE(D90,D92)</f>
+        <v>3.0550000000000002</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="27"/>
+        <v>2.9299999999999997</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="27"/>
+        <v>2.65</v>
       </c>
     </row>
     <row r="87" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87">
+        <v>3.01</v>
+      </c>
+      <c r="E87">
+        <v>2.98</v>
+      </c>
+      <c r="F87">
+        <v>2.21</v>
+      </c>
+      <c r="I87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J87">
+        <v>3.55</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="27"/>
+        <v>3.04</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="27"/>
+        <v>2.88</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="27"/>
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88">
+        <v>3.15</v>
+      </c>
+      <c r="E88">
+        <v>3.03</v>
+      </c>
+      <c r="F88">
+        <v>3.78</v>
+      </c>
+      <c r="I88" t="s">
+        <v>48</v>
+      </c>
+      <c r="J88">
+        <v>3.17</v>
+      </c>
+      <c r="K88">
+        <f>AVERAGE(D86,D88)</f>
+        <v>3.335</v>
+      </c>
+      <c r="L88">
+        <f>AVERAGE(E88,E86)</f>
+        <v>3.3099999999999996</v>
+      </c>
+      <c r="M88">
+        <f>AVERAGE(F88,F86)</f>
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89">
+        <v>2.87</v>
+      </c>
+      <c r="E89">
+        <v>2.73</v>
+      </c>
+      <c r="F89">
+        <v>3.19</v>
+      </c>
+      <c r="I89" t="s">
+        <v>49</v>
+      </c>
+      <c r="J89">
+        <v>2.5</v>
+      </c>
+      <c r="K89">
+        <f>AVERAGE(D89,D87)</f>
+        <v>2.94</v>
+      </c>
+      <c r="L89">
+        <f>AVERAGE(E89,E87)</f>
+        <v>2.855</v>
+      </c>
+      <c r="M89">
+        <f>AVERAGE(F89,F87)</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90">
+        <v>2.91</v>
+      </c>
+      <c r="E90">
+        <v>2.76</v>
+      </c>
+      <c r="F90">
+        <v>3.59</v>
+      </c>
+      <c r="I90" t="s">
         <v>40</v>
       </c>
-      <c r="D87">
-        <f>AVERAGE(D79:D86)</f>
+      <c r="J90">
+        <f>AVERAGE(J86:J89)</f>
+        <v>3.21</v>
+      </c>
+      <c r="K90">
+        <f>AVERAGE(K86:K89)</f>
         <v>3.0924999999999998</v>
       </c>
-      <c r="E87">
-        <f>AVERAGE(E79:E86)</f>
-        <v>2.9937500000000004</v>
-      </c>
-      <c r="F87">
-        <f>AVERAGE(F79:F86)</f>
+      <c r="L90">
+        <f>AVERAGE(L86:L89)</f>
+        <v>2.9937499999999999</v>
+      </c>
+      <c r="M90">
+        <f>AVERAGE(M86:M89)</f>
         <v>2.62</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C90" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D90" t="s">
-        <v>38</v>
-      </c>
-      <c r="E90" t="s">
-        <v>33</v>
-      </c>
-      <c r="F90" t="s">
-        <v>34</v>
-      </c>
-      <c r="G90" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="91" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D91">
-        <v>3.98</v>
+        <v>3.04</v>
       </c>
       <c r="E91">
-        <v>3.54</v>
+        <v>2.85</v>
       </c>
       <c r="F91">
-        <v>3.58</v>
-      </c>
-      <c r="G91">
-        <v>3.1</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="92" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D92">
-        <v>3.64</v>
+        <v>3.2</v>
       </c>
       <c r="E92">
-        <v>3.39</v>
+        <v>3.1</v>
       </c>
       <c r="F92">
-        <v>3.14</v>
-      </c>
-      <c r="G92">
-        <v>2.88</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="93" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D93">
-        <v>4.01</v>
+        <v>3.04</v>
       </c>
       <c r="E93">
-        <v>3.7</v>
+        <v>2.91</v>
       </c>
       <c r="F93">
-        <v>3.28</v>
-      </c>
-      <c r="G93">
-        <v>3.05</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="94" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94">
+        <f>AVERAGE(D86:D93)</f>
+        <v>3.0924999999999998</v>
+      </c>
+      <c r="E94">
+        <f>AVERAGE(E86:E93)</f>
+        <v>2.9937500000000004</v>
+      </c>
+      <c r="F94">
+        <f>AVERAGE(F86:F93)</f>
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D97" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" t="s">
+        <v>33</v>
+      </c>
+      <c r="F97" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98">
+        <v>3.98</v>
+      </c>
+      <c r="E98">
+        <v>3.54</v>
+      </c>
+      <c r="F98">
+        <v>3.58</v>
+      </c>
+      <c r="G98">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>47</v>
+      </c>
+      <c r="D99">
+        <v>3.64</v>
+      </c>
+      <c r="E99">
+        <v>3.39</v>
+      </c>
+      <c r="F99">
+        <v>3.14</v>
+      </c>
+      <c r="G99">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100">
+        <v>4.01</v>
+      </c>
+      <c r="E100">
+        <v>3.7</v>
+      </c>
+      <c r="F100">
+        <v>3.28</v>
+      </c>
+      <c r="G100">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
         <v>49</v>
       </c>
-      <c r="D94">
+      <c r="D101">
         <v>4.3</v>
       </c>
-      <c r="E94">
+      <c r="E101">
         <v>3.57</v>
       </c>
-      <c r="F94">
+      <c r="F101">
         <v>3.54</v>
       </c>
-      <c r="G94">
+      <c r="G101">
         <v>3.16</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
         <v>40</v>
       </c>
-      <c r="D95">
-        <f>AVERAGE(D91:D94)</f>
+      <c r="D102">
+        <f>AVERAGE(D98:D101)</f>
         <v>3.9824999999999999</v>
       </c>
-      <c r="E95">
-        <f>AVERAGE(E91:E94)</f>
+      <c r="E102">
+        <f>AVERAGE(E98:E101)</f>
         <v>3.55</v>
       </c>
-      <c r="F95">
-        <f>AVERAGE(F91:F94)</f>
+      <c r="F102">
+        <f>AVERAGE(F98:F101)</f>
         <v>3.3849999999999998</v>
       </c>
-      <c r="G95">
-        <f>AVERAGE(G91:G94)</f>
+      <c r="G102">
+        <f>AVERAGE(G98:G101)</f>
         <v>3.0475000000000003</v>
       </c>
     </row>
